--- a/MyToDoList.xlsx
+++ b/MyToDoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Topic</t>
   </si>
@@ -56,6 +56,26 @@
   <si>
     <t xml:space="preserve">How to log big
  Request and Response </t>
+  </si>
+  <si>
+    <t>More Use of Serikization</t>
+  </si>
+  <si>
+    <t>Inner Query Practice</t>
+  </si>
+  <si>
+    <t>Joins</t>
+  </si>
+  <si>
+    <t>Thread Real Time Use case</t>
+  </si>
+  <si>
+    <t>Exception Handling Framework  Design</t>
+  </si>
+  <si>
+    <t>More Use of Reflection 
+i) factory
+ii) Class Travel</t>
   </si>
 </sst>
 </file>
@@ -104,12 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,17 +434,17 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -429,7 +455,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -437,7 +463,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -445,7 +471,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -453,7 +479,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -461,7 +487,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -469,7 +495,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -477,7 +503,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -485,7 +511,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -493,7 +519,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -501,100 +527,118 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="18" spans="1:2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:2">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="1:2">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27" spans="1:2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28" spans="1:2">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="29" spans="1:2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
     </row>
